--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\webアプリ\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A069330E-E4D7-4758-A542-4B8E78190B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1140A1E-2B0D-43C6-9ADF-36068C075C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="122">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -398,14 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Test.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Q_A.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Tjudge.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -492,34 +484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chat.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>answer.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test_result.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test_question.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test_choice.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>src/dao</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -571,38 +535,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.servlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>menu.servlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>regist.servlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pwchange.servlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chat.servlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Q_A.servlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tselect.servlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tjudge.servlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JavaScript</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -817,16 +749,119 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Test.servlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト問題画面</t>
     <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル作成有我</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アリガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル作成小野田</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>オノダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル作成栗山、中垣内</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クリヤマ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ナカガキウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q_a.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chat.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Answer.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test_result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test_question.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test_choice.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Regist.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pwchange.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q_A.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tselect.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tjudge.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル作成奥富</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オクトミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -932,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,6 +988,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1647,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="B2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1662,7 +1700,7 @@
     <col min="7" max="7" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1697,11 +1735,11 @@
         <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B42" si="0">ROW()-2</f>
         <v>2</v>
@@ -1716,11 +1754,11 @@
         <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1735,11 +1773,11 @@
         <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1754,11 +1792,11 @@
         <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1773,11 +1811,14 @@
         <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1789,14 +1830,14 @@
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1811,11 +1852,11 @@
         <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1827,14 +1868,14 @@
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1846,498 +1887,507 @@
         <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2352,11 +2402,11 @@
         <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2371,11 +2421,11 @@
         <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2387,14 +2437,17 @@
         <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2406,14 +2459,14 @@
         <v>38</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2437,21 +2490,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2622,10 +2660,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2648,20 +2712,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1140A1E-2B0D-43C6-9ADF-36068C075C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54887EF-664E-4B93-813F-39BE1671FC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="126">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -862,6 +862,40 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>オクトミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥富</t>
+    <rPh sb="0" eb="2">
+      <t>オクトミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小野田、中垣内</t>
+    <rPh sb="0" eb="3">
+      <t>オノダ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ナカガキウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有我、栗山</t>
+    <rPh sb="0" eb="2">
+      <t>アリガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クリヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -980,6 +1014,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,9 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1687,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
   <dimension ref="B2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1737,7 +1771,9 @@
       <c r="F3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
@@ -1756,7 +1792,9 @@
       <c r="F4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -1775,7 +1813,9 @@
       <c r="F5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
@@ -1794,7 +1834,9 @@
       <c r="F6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -1813,8 +1855,10 @@
       <c r="F7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1835,7 +1879,9 @@
       <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1854,7 +1900,9 @@
       <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1873,7 +1921,9 @@
       <c r="F10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1892,7 +1942,9 @@
       <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1911,7 +1963,9 @@
       <c r="F12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1930,7 +1984,9 @@
       <c r="F13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1949,8 +2005,10 @@
       <c r="F14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1971,7 +2029,9 @@
       <c r="F15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1990,7 +2050,9 @@
       <c r="F16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -2009,7 +2071,9 @@
       <c r="F17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -2028,7 +2092,9 @@
       <c r="F18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -2047,7 +2113,9 @@
       <c r="F19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -2066,7 +2134,9 @@
       <c r="F20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -2085,8 +2155,10 @@
       <c r="F21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2107,7 +2179,9 @@
       <c r="F22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -2126,7 +2200,9 @@
       <c r="F23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -2145,7 +2221,9 @@
       <c r="F24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -2164,7 +2242,9 @@
       <c r="F25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -2183,7 +2263,9 @@
       <c r="F26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -2202,7 +2284,9 @@
       <c r="F27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
@@ -2221,8 +2305,10 @@
       <c r="F28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="7" t="s">
+      <c r="G28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2243,7 +2329,9 @@
       <c r="F29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -2262,7 +2350,9 @@
       <c r="F30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -2281,7 +2371,9 @@
       <c r="F31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
@@ -2294,13 +2386,15 @@
       <c r="D32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -2313,11 +2407,13 @@
       <c r="D33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -2330,11 +2426,13 @@
       <c r="D34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -2347,11 +2445,13 @@
       <c r="D35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -2364,11 +2464,13 @@
       <c r="D36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -2381,11 +2483,13 @@
       <c r="D37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
@@ -2404,7 +2508,9 @@
       <c r="F38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
@@ -2423,7 +2529,9 @@
       <c r="F39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
@@ -2442,8 +2550,10 @@
       <c r="F40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="7" t="s">
+      <c r="G40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2464,7 +2574,9 @@
       <c r="F41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
@@ -2490,6 +2602,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2660,36 +2787,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2712,9 +2813,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54887EF-664E-4B93-813F-39BE1671FC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCE318-615E-4244-A831-7BD4EE646BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="128">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -897,6 +897,14 @@
     <rPh sb="0" eb="2">
       <t>ゼンイン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Logout.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインアウト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1719,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
-  <dimension ref="B2:H42"/>
+  <dimension ref="B2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1777,7 +1785,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B42" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B43" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2195,7 +2203,7 @@
         <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>57</v>
@@ -2216,13 +2224,13 @@
         <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -2237,13 +2245,13 @@
         <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
@@ -2258,10 +2266,10 @@
         <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>122</v>
@@ -2279,13 +2287,13 @@
         <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -2300,17 +2308,14 @@
         <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -2324,13 +2329,16 @@
         <v>75</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
@@ -2345,10 +2353,10 @@
         <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>123</v>
@@ -2366,10 +2374,10 @@
         <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>123</v>
@@ -2381,19 +2389,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -2407,9 +2415,11 @@
       <c r="D33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>122</v>
@@ -2428,7 +2438,7 @@
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>122</v>
@@ -2447,7 +2457,7 @@
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>122</v>
@@ -2466,7 +2476,7 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>122</v>
@@ -2483,12 +2493,12 @@
       <c r="D37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
@@ -2497,19 +2507,17 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E38" s="7"/>
       <c r="F38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
@@ -2524,13 +2532,13 @@
         <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
@@ -2545,16 +2553,13 @@
         <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
@@ -2569,13 +2574,16 @@
         <v>38</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
@@ -2586,14 +2594,35 @@
       <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E33:E38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2602,21 +2631,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2787,10 +2801,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2813,20 +2853,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCE318-615E-4244-A831-7BD4EE646BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91704B80-1C0D-4153-99F4-D4902A291D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="130">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -905,6 +905,23 @@
   </si>
   <si>
     <t>ログインアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test_choice_detail.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト問題選択での子となるクラスjavaBeans</t>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1727,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
-  <dimension ref="B2:H43"/>
+  <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1785,7 +1802,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B43" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2095,10 +2112,10 @@
         <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>123</v>
@@ -2113,16 +2130,16 @@
         <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
@@ -2137,13 +2154,13 @@
         <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -2158,17 +2175,14 @@
         <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
@@ -2182,13 +2196,16 @@
         <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
@@ -2200,16 +2217,16 @@
         <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
@@ -2224,10 +2241,10 @@
         <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>122</v>
@@ -2245,13 +2262,13 @@
         <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
@@ -2266,13 +2283,13 @@
         <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
@@ -2287,10 +2304,10 @@
         <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>122</v>
@@ -2308,13 +2325,13 @@
         <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -2329,17 +2346,14 @@
         <v>75</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -2353,13 +2367,16 @@
         <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
@@ -2374,10 +2391,10 @@
         <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>123</v>
@@ -2395,10 +2412,10 @@
         <v>75</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>123</v>
@@ -2410,19 +2427,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
@@ -2436,9 +2453,11 @@
       <c r="D34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>122</v>
@@ -2457,7 +2476,7 @@
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>122</v>
@@ -2476,7 +2495,7 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>122</v>
@@ -2495,7 +2514,7 @@
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>122</v>
@@ -2512,12 +2531,12 @@
       <c r="D38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
@@ -2526,19 +2545,17 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E39" s="7"/>
       <c r="F39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
@@ -2553,13 +2570,13 @@
         <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
@@ -2574,16 +2591,13 @@
         <v>38</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
@@ -2598,13 +2612,16 @@
         <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
@@ -2615,14 +2632,35 @@
       <c r="C43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="E34:E39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2631,6 +2669,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2801,36 +2854,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2853,9 +2880,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91704B80-1C0D-4153-99F4-D4902A291D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2248AD-1880-46D9-9FAF-D24E38F63D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="130">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -908,19 +908,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Test_choice_detail.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト問題選択での子となるクラスjavaBeans</t>
-    <rPh sb="3" eb="5">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コ</t>
+    <t>進捗率</t>
+    <rPh sb="0" eb="3">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doget未実装</t>
+    <rPh sb="5" eb="8">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -960,7 +957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -990,29 +987,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1039,17 +1019,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1744,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
-  <dimension ref="B2:H44"/>
+  <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1756,10 +1736,10 @@
     <col min="4" max="4" width="26.375" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
     <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="7" max="8" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1778,8 +1758,11 @@
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1799,10 +1782,11 @@
       <c r="G3" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B43" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1820,8 +1804,9 @@
       <c r="G4" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1841,8 +1826,9 @@
       <c r="G5" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1862,8 +1848,9 @@
       <c r="G6" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1883,11 +1870,12 @@
       <c r="G7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1907,8 +1895,9 @@
       <c r="G8" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1928,8 +1917,11 @@
       <c r="G9" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H9" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1949,8 +1941,11 @@
       <c r="G10" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H10" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1970,8 +1965,11 @@
       <c r="G11" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H11" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1991,8 +1989,9 @@
       <c r="G12" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2012,8 +2011,9 @@
       <c r="G13" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2033,11 +2033,12 @@
       <c r="G14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2057,8 +2058,9 @@
       <c r="G15" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2078,8 +2080,11 @@
       <c r="G16" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H16" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2099,8 +2104,11 @@
       <c r="G17" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H17" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2112,16 +2120,19 @@
         <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H18" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2130,19 +2141,20 @@
         <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2154,16 +2166,17 @@
         <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2175,16 +2188,20 @@
         <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H21" s="1"/>
+      <c r="I21" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2196,19 +2213,19 @@
         <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2217,19 +2234,20 @@
         <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2241,16 +2259,17 @@
         <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2262,16 +2281,17 @@
         <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2283,16 +2303,17 @@
         <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2304,16 +2325,17 @@
         <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2325,16 +2347,17 @@
         <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2346,16 +2369,20 @@
         <v>75</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H29" s="1"/>
+      <c r="I29" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2367,19 +2394,19 @@
         <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2391,16 +2418,22 @@
         <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H31" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2412,37 +2445,41 @@
         <v>75</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H32" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>120</v>
+        <v>77</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2453,17 +2490,16 @@
       <c r="D34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2476,13 +2512,14 @@
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2495,13 +2532,14 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2514,13 +2552,14 @@
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2533,32 +2572,38 @@
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2570,16 +2615,19 @@
         <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2591,16 +2639,22 @@
         <v>38</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2612,19 +2666,19 @@
         <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2632,35 +2686,15 @@
       <c r="C43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E33:E38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2678,12 +2712,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2854,6 +2882,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
@@ -2863,23 +2897,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2896,4 +2913,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2248AD-1880-46D9-9FAF-D24E38F63D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E39AA-C834-4F2C-A47D-3CEC2BD67ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1025,11 +1025,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
   <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1782,7 +1782,9 @@
       <c r="G3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
@@ -1826,7 +1828,9 @@
       <c r="G5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
@@ -1848,7 +1852,9 @@
       <c r="G6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -1917,7 +1923,7 @@
       <c r="G9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.7</v>
       </c>
     </row>
@@ -1941,7 +1947,7 @@
       <c r="G10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>0.7</v>
       </c>
     </row>
@@ -1965,7 +1971,7 @@
       <c r="G11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0.7</v>
       </c>
     </row>
@@ -1989,7 +1995,9 @@
       <c r="G12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -2080,7 +2088,7 @@
       <c r="G16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>0.75</v>
       </c>
     </row>
@@ -2104,7 +2112,7 @@
       <c r="G17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>0.75</v>
       </c>
     </row>
@@ -2128,7 +2136,7 @@
       <c r="G18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>0.75</v>
       </c>
     </row>
@@ -2152,7 +2160,9 @@
       <c r="G19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -2221,7 +2231,7 @@
       <c r="G22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>0.3</v>
       </c>
     </row>
@@ -2245,7 +2255,9 @@
       <c r="G23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -2267,7 +2279,9 @@
       <c r="G24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -2311,7 +2325,9 @@
       <c r="G26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -2333,7 +2349,9 @@
       <c r="G27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
@@ -2402,7 +2420,7 @@
       <c r="G30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>0.4</v>
       </c>
     </row>
@@ -2426,7 +2444,7 @@
       <c r="G31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>0.3</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -2453,7 +2471,7 @@
       <c r="G32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -2468,7 +2486,7 @@
       <c r="D33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2477,7 +2495,9 @@
       <c r="G33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -2490,14 +2510,16 @@
       <c r="D34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -2510,14 +2532,16 @@
       <c r="D35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -2530,14 +2554,16 @@
       <c r="D36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -2550,14 +2576,16 @@
       <c r="D37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
@@ -2570,7 +2598,7 @@
       <c r="D38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="2" t="s">
         <v>83</v>
       </c>
@@ -2599,7 +2627,7 @@
       <c r="G39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2623,7 +2651,7 @@
       <c r="G40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2647,7 +2675,7 @@
       <c r="G41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <v>0</v>
       </c>
       <c r="I41" s="5" t="s">
@@ -2674,7 +2702,7 @@
       <c r="G42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2703,12 +2731,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2883,15 +2908,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2916,18 +2953,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E39AA-C834-4F2C-A47D-3CEC2BD67ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EC315-0EED-42B5-89D0-CEDAAFE1D4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
   <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1806,7 +1806,9 @@
       <c r="G4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -1876,7 +1878,9 @@
       <c r="G7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="6">
+        <v>0.8</v>
+      </c>
       <c r="I7" s="5" t="s">
         <v>102</v>
       </c>
@@ -1901,7 +1905,9 @@
       <c r="G8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -2019,7 +2025,9 @@
       <c r="G13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -2041,7 +2049,9 @@
       <c r="G14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="6">
+        <v>0.7</v>
+      </c>
       <c r="I14" s="5" t="s">
         <v>103</v>
       </c>
@@ -2066,7 +2076,9 @@
       <c r="G15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="6">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -2184,7 +2196,9 @@
       <c r="G20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -2206,7 +2220,9 @@
       <c r="G21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="6">
+        <v>0.3</v>
+      </c>
       <c r="I21" s="5" t="s">
         <v>104</v>
       </c>
@@ -2303,7 +2319,9 @@
       <c r="G25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -2373,7 +2391,9 @@
       <c r="G28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -2395,7 +2415,9 @@
       <c r="G29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="6">
+        <v>0.2</v>
+      </c>
       <c r="I29" s="5" t="s">
         <v>121</v>
       </c>
@@ -2605,7 +2627,9 @@
       <c r="G38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
@@ -2731,9 +2755,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2908,27 +2935,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2953,9 +2968,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EC315-0EED-42B5-89D0-CEDAAFE1D4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BAF3F0-9333-4079-8BF0-C8E529237747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
   <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1807,7 +1807,7 @@
         <v>124</v>
       </c>
       <c r="H4" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -1930,7 +1930,7 @@
         <v>123</v>
       </c>
       <c r="H9" s="6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
@@ -1954,7 +1954,7 @@
         <v>123</v>
       </c>
       <c r="H10" s="6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
@@ -1978,7 +1978,7 @@
         <v>123</v>
       </c>
       <c r="H11" s="6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -2221,7 +2221,7 @@
         <v>124</v>
       </c>
       <c r="H21" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>104</v>
@@ -2248,7 +2248,7 @@
         <v>123</v>
       </c>
       <c r="H22" s="6">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
@@ -2320,7 +2320,7 @@
         <v>124</v>
       </c>
       <c r="H25" s="6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
@@ -2416,7 +2416,7 @@
         <v>124</v>
       </c>
       <c r="H29" s="6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>121</v>
@@ -2628,7 +2628,7 @@
         <v>124</v>
       </c>
       <c r="H38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
@@ -2755,12 +2755,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2935,15 +2932,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2968,18 +2977,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BAF3F0-9333-4079-8BF0-C8E529237747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF64785-BD2F-4B4C-B9DF-41C47B66B6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="131">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -918,6 +918,13 @@
     <t>doget未実装</t>
     <rPh sb="5" eb="8">
       <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成率</t>
+    <rPh sb="0" eb="3">
+      <t>タッセイリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -926,7 +933,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,6 +946,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1006,7 +1022,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1046,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
   <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1783,7 +1802,7 @@
         <v>122</v>
       </c>
       <c r="H3" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
@@ -1807,7 +1826,7 @@
         <v>124</v>
       </c>
       <c r="H4" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -1831,7 +1850,7 @@
         <v>122</v>
       </c>
       <c r="H5" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
@@ -1855,7 +1874,7 @@
         <v>122</v>
       </c>
       <c r="H6" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
@@ -1879,7 +1898,7 @@
         <v>124</v>
       </c>
       <c r="H7" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>102</v>
@@ -1906,7 +1925,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="6">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
@@ -1978,7 +1997,7 @@
         <v>123</v>
       </c>
       <c r="H11" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -2002,7 +2021,7 @@
         <v>122</v>
       </c>
       <c r="H12" s="6">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
@@ -2050,7 +2069,7 @@
         <v>124</v>
       </c>
       <c r="H14" s="6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>103</v>
@@ -2077,7 +2096,7 @@
         <v>124</v>
       </c>
       <c r="H15" s="6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
@@ -2221,7 +2240,7 @@
         <v>124</v>
       </c>
       <c r="H21" s="6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>104</v>
@@ -2272,7 +2291,7 @@
         <v>122</v>
       </c>
       <c r="H23" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
@@ -2296,7 +2315,7 @@
         <v>122</v>
       </c>
       <c r="H24" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
@@ -2320,7 +2339,7 @@
         <v>124</v>
       </c>
       <c r="H25" s="6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
@@ -2392,7 +2411,7 @@
         <v>124</v>
       </c>
       <c r="H28" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
@@ -2416,7 +2435,7 @@
         <v>124</v>
       </c>
       <c r="H29" s="6">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>121</v>
@@ -2467,7 +2486,7 @@
         <v>123</v>
       </c>
       <c r="H31" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>129</v>
@@ -2518,7 +2537,7 @@
         <v>122</v>
       </c>
       <c r="H33" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
@@ -2741,8 +2760,13 @@
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="6">
+        <f>AVERAGE(H3:H42)</f>
+        <v>0.74475000000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2755,9 +2779,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2932,27 +2959,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2977,9 +2992,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF64785-BD2F-4B4C-B9DF-41C47B66B6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A420F23-1412-4645-9448-ABA4724A8A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="133">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -925,6 +925,20 @@
     <t>達成率</t>
     <rPh sb="0" eb="3">
       <t>タッセイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Testsresult.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果関連のデータベース</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1044,11 +1058,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
-  <dimension ref="B2:I43"/>
+  <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1807,7 +1821,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B43" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2261,7 +2275,7 @@
         <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>123</v>
@@ -2279,19 +2293,19 @@
         <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H23" s="6">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
@@ -2306,10 +2320,10 @@
         <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>122</v>
@@ -2330,13 +2344,13 @@
         <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H25" s="6">
         <v>1</v>
@@ -2354,16 +2368,16 @@
         <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H26" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
@@ -2378,16 +2392,16 @@
         <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>122</v>
       </c>
       <c r="H27" s="6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
@@ -2402,16 +2416,16 @@
         <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H28" s="6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
@@ -2426,19 +2440,16 @@
         <v>75</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H29" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
@@ -2453,16 +2464,19 @@
         <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" s="6">
-        <v>0.4</v>
+        <v>0.7</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
@@ -2477,19 +2491,16 @@
         <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H31" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>129</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
@@ -2504,10 +2515,10 @@
         <v>75</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>123</v>
@@ -2515,6 +2526,9 @@
       <c r="H32" s="6">
         <v>0.5</v>
       </c>
+      <c r="I32" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -2522,22 +2536,22 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H33" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
@@ -2551,15 +2565,17 @@
       <c r="D34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>122</v>
       </c>
       <c r="H34" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
@@ -2573,15 +2589,15 @@
       <c r="D35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>122</v>
       </c>
       <c r="H35" s="6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
@@ -2595,15 +2611,15 @@
       <c r="D36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>122</v>
       </c>
       <c r="H36" s="6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
@@ -2617,9 +2633,9 @@
       <c r="D37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>122</v>
@@ -2639,15 +2655,15 @@
       <c r="D38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H38" s="6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
@@ -2656,22 +2672,20 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E39" s="8"/>
       <c r="F39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
@@ -2686,13 +2700,13 @@
         <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H40" s="6">
         <v>0</v>
@@ -2710,20 +2724,17 @@
         <v>38</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H41" s="6">
         <v>0</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
@@ -2737,17 +2748,20 @@
         <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H42" s="6">
         <v>0</v>
       </c>
+      <c r="I42" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
@@ -2757,20 +2771,44 @@
       <c r="C43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="8" t="s">
+      <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H43" s="6">
-        <f>AVERAGE(H3:H42)</f>
-        <v>0.74475000000000002</v>
+      <c r="H44" s="6">
+        <f>AVERAGE(H3:H43)</f>
+        <v>0.73390243902439034</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="E34:E39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2779,12 +2817,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2959,15 +2994,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2992,18 +3039,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A420F23-1412-4645-9448-ABA4724A8A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9594A-0E14-48D2-A8C4-60AA602395D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -929,10 +929,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Testsresult.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト結果関連のデータベース</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
@@ -940,6 +936,10 @@
     <rPh sb="5" eb="7">
       <t>カンレン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestsresultDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1759,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2035,7 +2035,7 @@
         <v>122</v>
       </c>
       <c r="H12" s="6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
@@ -2134,7 +2134,7 @@
         <v>123</v>
       </c>
       <c r="H16" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
@@ -2158,7 +2158,7 @@
         <v>123</v>
       </c>
       <c r="H17" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
@@ -2182,7 +2182,7 @@
         <v>123</v>
       </c>
       <c r="H18" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
@@ -2206,7 +2206,7 @@
         <v>122</v>
       </c>
       <c r="H19" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
@@ -2254,7 +2254,7 @@
         <v>124</v>
       </c>
       <c r="H21" s="6">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>104</v>
@@ -2275,13 +2275,13 @@
         <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H22" s="6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
@@ -2296,7 +2296,7 @@
         <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>74</v>
@@ -2320,7 +2320,7 @@
         <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>57</v>
@@ -2344,7 +2344,7 @@
         <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>127</v>
@@ -2401,7 +2401,7 @@
         <v>122</v>
       </c>
       <c r="H27" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
@@ -2425,7 +2425,7 @@
         <v>122</v>
       </c>
       <c r="H28" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
@@ -2500,7 +2500,7 @@
         <v>123</v>
       </c>
       <c r="H31" s="6">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
@@ -2597,7 +2597,7 @@
         <v>122</v>
       </c>
       <c r="H35" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
@@ -2619,7 +2619,7 @@
         <v>122</v>
       </c>
       <c r="H36" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
@@ -2641,7 +2641,7 @@
         <v>122</v>
       </c>
       <c r="H37" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
@@ -2663,7 +2663,7 @@
         <v>122</v>
       </c>
       <c r="H38" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
@@ -2733,7 +2733,7 @@
         <v>122</v>
       </c>
       <c r="H41" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="H44" s="6">
         <f>AVERAGE(H3:H43)</f>
-        <v>0.73390243902439034</v>
+        <v>0.82195121951219519</v>
       </c>
     </row>
   </sheetData>
@@ -2817,9 +2817,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2994,27 +2997,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3039,9 +3030,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9594A-0E14-48D2-A8C4-60AA602395D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B627AC-D735-4342-B2F6-52659C945995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1759,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -1912,7 +1912,7 @@
         <v>124</v>
       </c>
       <c r="H7" s="6">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>102</v>
@@ -1939,7 +1939,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="6">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
@@ -1987,7 +1987,7 @@
         <v>123</v>
       </c>
       <c r="H10" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
@@ -2158,7 +2158,7 @@
         <v>123</v>
       </c>
       <c r="H17" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
@@ -2182,7 +2182,7 @@
         <v>123</v>
       </c>
       <c r="H18" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
@@ -2254,7 +2254,7 @@
         <v>124</v>
       </c>
       <c r="H21" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>104</v>
@@ -2281,7 +2281,7 @@
         <v>123</v>
       </c>
       <c r="H22" s="6">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
@@ -2305,7 +2305,7 @@
         <v>123</v>
       </c>
       <c r="H23" s="6">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
@@ -2473,7 +2473,7 @@
         <v>124</v>
       </c>
       <c r="H30" s="6">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>121</v>
@@ -2524,7 +2524,7 @@
         <v>123</v>
       </c>
       <c r="H32" s="6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>129</v>
@@ -2709,7 +2709,7 @@
         <v>125</v>
       </c>
       <c r="H40" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
@@ -2733,7 +2733,7 @@
         <v>122</v>
       </c>
       <c r="H41" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="H44" s="6">
         <f>AVERAGE(H3:H43)</f>
-        <v>0.82195121951219519</v>
+        <v>0.87804878048780488</v>
       </c>
     </row>
   </sheetData>
@@ -2817,12 +2817,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2997,15 +2994,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3030,18 +3039,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B627AC-D735-4342-B2F6-52659C945995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6552EA1F-EF44-4E30-9875-7639D69D286B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="135">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -940,6 +940,17 @@
   </si>
   <si>
     <t>TestsresultDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Select.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小野田</t>
+    <rPh sb="0" eb="3">
+      <t>オノダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1757,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
-  <dimension ref="B2:I44"/>
+  <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1821,7 +1832,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B45" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1912,7 +1923,7 @@
         <v>124</v>
       </c>
       <c r="H7" s="6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>102</v>
@@ -1987,7 +1998,7 @@
         <v>123</v>
       </c>
       <c r="H10" s="6">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
@@ -2134,7 +2145,7 @@
         <v>123</v>
       </c>
       <c r="H16" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
@@ -2149,13 +2160,13 @@
         <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H17" s="6">
         <v>1</v>
@@ -2173,10 +2184,10 @@
         <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>123</v>
@@ -2194,16 +2205,16 @@
         <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H19" s="6">
         <v>1</v>
@@ -2221,13 +2232,13 @@
         <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H20" s="6">
         <v>1</v>
@@ -2245,19 +2256,16 @@
         <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
@@ -2272,16 +2280,19 @@
         <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="6">
-        <v>0.95</v>
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
@@ -2296,16 +2307,16 @@
         <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H23" s="6">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
@@ -2317,16 +2328,16 @@
         <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H24" s="6">
         <v>1</v>
@@ -2344,10 +2355,10 @@
         <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>122</v>
@@ -2368,13 +2379,13 @@
         <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H26" s="6">
         <v>1</v>
@@ -2392,13 +2403,13 @@
         <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H27" s="6">
         <v>1</v>
@@ -2416,10 +2427,10 @@
         <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>122</v>
@@ -2440,13 +2451,13 @@
         <v>75</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H29" s="6">
         <v>1</v>
@@ -2464,19 +2475,16 @@
         <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H30" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
@@ -2491,16 +2499,19 @@
         <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H31" s="6">
-        <v>0.7</v>
+        <v>0.9</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
@@ -2515,19 +2526,16 @@
         <v>75</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H32" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>129</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
@@ -2542,16 +2550,19 @@
         <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H33" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
@@ -2560,22 +2571,22 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H34" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
@@ -2589,9 +2600,11 @@
       <c r="D35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>122</v>
@@ -2613,7 +2626,7 @@
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>122</v>
@@ -2635,7 +2648,7 @@
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>122</v>
@@ -2657,7 +2670,7 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>122</v>
@@ -2679,10 +2692,10 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H39" s="6">
         <v>1</v>
@@ -2694,22 +2707,20 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E40" s="8"/>
       <c r="F40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H40" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
@@ -2724,16 +2735,16 @@
         <v>38</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H41" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
@@ -2748,19 +2759,16 @@
         <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
@@ -2775,17 +2783,20 @@
         <v>38</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
+      <c r="I43" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
@@ -2795,20 +2806,44 @@
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="7" t="s">
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H44" s="6">
-        <f>AVERAGE(H3:H43)</f>
-        <v>0.87804878048780488</v>
+      <c r="H45" s="6">
+        <f>AVERAGE(H3:H44)</f>
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E35:E40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2817,9 +2852,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2994,27 +3032,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3039,9 +3065,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6552EA1F-EF44-4E30-9875-7639D69D286B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32987088-538E-4CB0-B985-2B8962067076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1771,7 +1771,7 @@
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1974,7 +1974,7 @@
         <v>123</v>
       </c>
       <c r="H9" s="6">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
@@ -2022,7 +2022,7 @@
         <v>123</v>
       </c>
       <c r="H11" s="6">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -2265,7 +2265,7 @@
         <v>124</v>
       </c>
       <c r="H21" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
@@ -2316,7 +2316,7 @@
         <v>123</v>
       </c>
       <c r="H23" s="6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
@@ -2535,7 +2535,7 @@
         <v>123</v>
       </c>
       <c r="H32" s="6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
@@ -2559,7 +2559,7 @@
         <v>123</v>
       </c>
       <c r="H33" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>129</v>
@@ -2586,7 +2586,7 @@
         <v>123</v>
       </c>
       <c r="H34" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="H43" s="6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>104</v>
@@ -2819,7 +2819,7 @@
         <v>124</v>
       </c>
       <c r="H44" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="H45" s="6">
         <f>AVERAGE(H3:H44)</f>
-        <v>0.91666666666666663</v>
+        <v>0.9440476190476188</v>
       </c>
     </row>
   </sheetData>
@@ -2852,12 +2852,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3032,15 +3029,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3065,18 +3074,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_C2.xlsx
+++ b/documents/ファイル構成一覧表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32987088-538E-4CB0-B985-2B8962067076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE7094-B39D-401F-8AD9-E34CA89E84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1770,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F0AE0-D451-4F4E-8A2E-9C33C67D8CE4}">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1950,7 +1950,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
@@ -1974,7 +1974,7 @@
         <v>123</v>
       </c>
       <c r="H9" s="6">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
@@ -1998,7 +1998,7 @@
         <v>123</v>
       </c>
       <c r="H10" s="6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
@@ -2022,7 +2022,7 @@
         <v>123</v>
       </c>
       <c r="H11" s="6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -2265,7 +2265,7 @@
         <v>124</v>
       </c>
       <c r="H21" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
@@ -2508,7 +2508,7 @@
         <v>124</v>
       </c>
       <c r="H31" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>121</v>
@@ -2535,7 +2535,7 @@
         <v>123</v>
       </c>
       <c r="H32" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
@@ -2559,7 +2559,7 @@
         <v>123</v>
       </c>
       <c r="H33" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>129</v>
@@ -2744,7 +2744,7 @@
         <v>125</v>
       </c>
       <c r="H41" s="6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="H43" s="6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>104</v>
@@ -2819,7 +2819,7 @@
         <v>124</v>
       </c>
       <c r="H44" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="H45" s="6">
         <f>AVERAGE(H3:H44)</f>
-        <v>0.9440476190476188</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2852,9 +2852,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3029,27 +3032,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3074,9 +3065,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>